--- a/CSV/河流统计表.xlsx
+++ b/CSV/河流统计表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,9 +244,6 @@
     <t>郾县</t>
   </si>
   <si>
-    <t>考澧水东至郾县入汝，今河南许州郾城县是也。</t>
-  </si>
-  <si>
     <t>淮浦县</t>
     <rPh sb="2" eb="3">
       <t>xian</t>
@@ -357,6 +354,137 @@
   </si>
   <si>
     <t>mian zhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏水</t>
+  </si>
+  <si>
+    <t>xia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途径</t>
+    <rPh sb="0" eb="1">
+      <t>tu'jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途径（县）</t>
+    <rPh sb="0" eb="1">
+      <t>tu'jing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华容县</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沱水</t>
+    <rPh sb="1" eb="2">
+      <t>shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长江</t>
+    <rPh sb="0" eb="1">
+      <t>chang'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枝江县西</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枝江县</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夷水</t>
+  </si>
+  <si>
+    <t>yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫县</t>
+    <rPh sb="1" eb="2">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夷道县</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洈水</t>
+  </si>
+  <si>
+    <t>gui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高成县洈山</t>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高成县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繇水</t>
+  </si>
+  <si>
+    <t>水经</t>
+    <rPh sb="0" eb="1">
+      <t>shui'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《山海经·中次十一》则澧水乃西楚之唐叶，东至郾城而汇于汝。”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,8 +561,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -463,7 +595,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -475,6 +607,8 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -485,6 +619,8 @@
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -759,15 +895,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,17 +926,25 @@
         <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -822,18 +966,22 @@
       <c r="G2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="M2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -853,16 +1001,18 @@
       <c r="G3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -880,16 +1030,20 @@
         <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -905,14 +1059,18 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -932,102 +1090,237 @@
         <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>4</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C10">
         <v>600</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>540</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/CSV/河流统计表.xlsx
+++ b/CSV/河流统计表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2020" windowWidth="24560" windowHeight="13400" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="1640" windowWidth="24560" windowHeight="13400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="汉书" sheetId="1" r:id="rId1"/>
@@ -898,7 +898,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
